--- a/TestData/Ekundu.xlsx
+++ b/TestData/Ekundu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tandokazil\HollardIT\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpumelelod\HollardIT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17038E-D887-4AC1-81E4-58826CB08363}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB4122-FED2-4E03-90E2-17A835549615}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60EF3B04-681B-4A1B-8366-B737F9D887C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60EF3B04-681B-4A1B-8366-B737F9D887C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchClient" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Iqbal Trading</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>PTA/EBPM P/000129908</t>
   </si>
 </sst>
 </file>
@@ -401,19 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC956EE5-1AA9-451D-B273-A76541D0AD9A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +430,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -433,6 +444,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
